--- a/state/washington/housing_percent.xlsx
+++ b/state/washington/housing_percent.xlsx
@@ -931,7 +931,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1380,7 +1380,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1820,7 +1820,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2690,7 +2690,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3097,7 +3097,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4549,7 +4549,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5892,7 +5892,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -6970,7 +6970,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -7822,7 +7822,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8735,7 +8735,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -9691,7 +9691,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10349,7 +10349,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10943,7 +10943,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11585,7 +11585,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -12099,7 +12099,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -13012,7 +13012,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
